--- a/fitting_results/fitting_results.xlsx
+++ b/fitting_results/fitting_results.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.34480348799717</v>
+        <v>0.2556608958810141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0722343585543513</v>
+        <v>0.06416729968711242</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2682301477298867</v>
+        <v>1.061621704445006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06175892789296569</v>
+        <v>0.07164335420981555</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3536001223578573</v>
+        <v>0.9544241813023264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05835194915195108</v>
+        <v>0.06627889207220715</v>
       </c>
       <c r="D4" t="n">
-        <v>4.978228837540962</v>
+        <v>0.5891508035303871</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -523,10 +523,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.05396200956425318</v>
+        <v>0.05396150724438045</v>
       </c>
       <c r="D5" t="n">
-        <v>8.185846650511991</v>
+        <v>8.180460010946197</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1739900327030423</v>
+        <v>0.1768869712355006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06164839810692593</v>
+        <v>0.06164738734076168</v>
       </c>
       <c r="D6" t="n">
-        <v>3.35887083070102</v>
+        <v>3.698632139144664</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -556,14 +556,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3735973578772693</v>
+        <v>0.3727975002607575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05415504599418827</v>
+        <v>0.05420117464195241</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>4.993935896222708</v>
+        <v>4.977215853244793</v>
       </c>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -575,14 +575,14 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.06559998689469911</v>
+        <v>0.06296372641480347</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.1756896560151293</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1915199743628394</v>
+        <v>0.2210301273435364</v>
       </c>
     </row>
   </sheetData>

--- a/fitting_results/fitting_results.xlsx
+++ b/fitting_results/fitting_results.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2556608958810141</v>
+        <v>0.2577933223150524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06416729968711242</v>
+        <v>0.06416819667195653</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.061621704445006</v>
+        <v>0.268079042865919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07164335420981555</v>
+        <v>0.06175888306625352</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9544241813023264</v>
+        <v>0.3025555213075556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06627889207220715</v>
+        <v>0.06571816938157811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5891508035303871</v>
+        <v>0.7374599148225568</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -523,10 +523,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.05396150724438045</v>
+        <v>0.05396142973984559</v>
       </c>
       <c r="D5" t="n">
-        <v>8.180460010946197</v>
+        <v>8.177929561890116</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1768869712355006</v>
+        <v>0.1768820706099547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06164738734076168</v>
+        <v>0.06164367622702345</v>
       </c>
       <c r="D6" t="n">
-        <v>3.698632139144664</v>
+        <v>4.094845468112774</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -556,14 +556,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3727975002607575</v>
+        <v>1.803400165726148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05420117464195241</v>
+        <v>0.0666275887707744</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>4.977215853244793</v>
+        <v>0.4028093878498905</v>
       </c>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -575,14 +575,14 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.06296372641480347</v>
+        <v>0.06785238452066962</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0.8609366103112596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210301273435364</v>
+        <v>0.5820745581363258</v>
       </c>
     </row>
   </sheetData>
